--- a/test_case_data/bmc/bmc_vehicle_steward_40-58_20210513.xlsx
+++ b/test_case_data/bmc/bmc_vehicle_steward_40-58_20210513.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="379">
   <si>
     <t>caseNum</t>
   </si>
@@ -294,70 +294,28 @@
     <t>林静文</t>
   </si>
   <si>
-    <t>vehicle_steward001</t>
-  </si>
-  <si>
     <t>智慧车管家</t>
   </si>
   <si>
-    <t>首页信息</t>
-  </si>
-  <si>
-    <t>首页显示正确</t>
-  </si>
-  <si>
-    <t>/vehicle/steward/index/info</t>
-  </si>
-  <si>
     <t>登录账号：19900000001</t>
   </si>
   <si>
     <t>返回首页内容</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74426</t>
-  </si>
-  <si>
-    <t>vehicle_steward002</t>
-  </si>
-  <si>
-    <t>费用类型</t>
-  </si>
-  <si>
     <t>可记账类型显示正确</t>
   </si>
   <si>
-    <t>/vehicle/steward/index/expenseType</t>
-  </si>
-  <si>
     <t>返回可记账类型</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74431</t>
-  </si>
-  <si>
-    <t>vehicle_steward003</t>
-  </si>
-  <si>
-    <t>广告</t>
-  </si>
-  <si>
     <t>获取二手车评估广告</t>
   </si>
   <si>
-    <t>/banner/list</t>
-  </si>
-  <si>
     <t>{"type": "vehicleSteward"}</t>
   </si>
   <si>
     <t>返回二手车评估广告内容</t>
-  </si>
-  <si>
-    <t>vehicle_steward004</t>
-  </si>
-  <si>
-    <t>获取油标</t>
   </si>
   <si>
     <r>
@@ -389,42 +347,21 @@
     </r>
   </si>
   <si>
-    <t>/vehicle/steward/vehicle/getCommonOilCode</t>
-  </si>
-  <si>
     <t>返回常用油标 （汽油、柴油、天然气）</t>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/75246</t>
   </si>
   <si>
-    <t>vehicle_steward005</t>
-  </si>
-  <si>
-    <t>车辆信息</t>
-  </si>
-  <si>
     <t>查询当前用户的记账车辆信息</t>
   </si>
   <si>
-    <t>/vehicle/steward/vehicle/vehicleOfUser</t>
-  </si>
-  <si>
     <t>返回用户的记账车辆信息</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/75256</t>
-  </si>
-  <si>
-    <t>vehicle_steward006</t>
-  </si>
-  <si>
     <t>完善车辆信息</t>
   </si>
   <si>
-    <t>/vehicle/steward/vehicle/add</t>
-  </si>
-  <si>
     <t>登录账号：18311111111</t>
   </si>
   <si>
@@ -434,12 +371,6 @@
     <t>车辆信息填写成功</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74471</t>
-  </si>
-  <si>
-    <t>vehicle_steward007</t>
-  </si>
-  <si>
     <t>手动记账</t>
   </si>
   <si>
@@ -458,81 +389,51 @@
     <t>http://yapi.hikcreate.com/project/31/interface/api/74451</t>
   </si>
   <si>
-    <t>vehicle_steward008</t>
-  </si>
-  <si>
     <t>手动记一笔加油的账，不开启加满跳枪</t>
   </si>
   <si>
     <t>{"automatic": false,"tallyDate": "2021-05-10","amount": "20","expenseType": "1","remark": ""}</t>
   </si>
   <si>
-    <t>vehicle_steward009</t>
-  </si>
-  <si>
     <t>手动记一笔停车的账</t>
   </si>
   <si>
-    <t>{"automatic": false,"tallyDate": "2021-05-07","amount": "25","expenseType": "2","remark": "哈哈哈"}</t>
-  </si>
-  <si>
-    <t>vehicle_steward010</t>
-  </si>
-  <si>
     <t>手动记一笔洗车的账</t>
   </si>
   <si>
     <t>{"automatic": false,"tallyDate": "2021-05-07","amount": "25","expenseType": "3","remark": "哈哈哈"}</t>
   </si>
   <si>
-    <t>vehicle_steward011</t>
-  </si>
-  <si>
     <t>手动记一笔过路费的账</t>
   </si>
   <si>
     <t>{"automatic": false,"tallyDate": "2021-05-07","amount": "25","expenseType": "4","remark": "哈哈哈"}</t>
   </si>
   <si>
-    <t>vehicle_steward012</t>
-  </si>
-  <si>
     <t>手动记一笔保养的账</t>
   </si>
   <si>
     <t>{"automatic": false,"tallyDate": "2021-05-07","amount": "25","expenseType": "5","remark": "哈哈哈"}</t>
   </si>
   <si>
-    <t>vehicle_steward013</t>
-  </si>
-  <si>
     <t>手动记一笔维修的账</t>
   </si>
   <si>
     <t>{"automatic": false,"tallyDate": "2021-05-07","amount": "25","expenseType": "6","remark": "哈哈哈"}</t>
   </si>
   <si>
-    <t>vehicle_steward014</t>
-  </si>
-  <si>
     <t>手动记一笔交通罚款的账</t>
   </si>
   <si>
     <t>{"automatic": false,"tallyDate": "2021-05-07","amount": "25","expenseType": "7","remark": "哈哈哈"}</t>
   </si>
   <si>
-    <t>vehicle_steward015</t>
-  </si>
-  <si>
     <t>手动记一笔其他的账</t>
   </si>
   <si>
     <t>{"automatic": false,"tallyDate": "2021-05-07","amount": "25","expenseType": "8","remark": "哈哈哈"}</t>
   </si>
   <si>
-    <t>vehicle_steward016</t>
-  </si>
-  <si>
     <t>手动记一笔不存在的记账类型的账</t>
   </si>
   <si>
@@ -542,9 +443,6 @@
     <t>记账成功，没有报错</t>
   </si>
   <si>
-    <t>vehicle_steward017</t>
-  </si>
-  <si>
     <t>手动记一笔不填写金额的账</t>
   </si>
   <si>
@@ -557,9 +455,6 @@
     <t>{"success": false,"code": 1001,"msg": "系统出现错误[1001]"}</t>
   </si>
   <si>
-    <t>vehicle_steward018</t>
-  </si>
-  <si>
     <t>记账明细</t>
   </si>
   <si>
@@ -578,9 +473,6 @@
     <t>http://yapi.hikcreate.com/project/31/interface/api/75086</t>
   </si>
   <si>
-    <t>vehicle_steward019</t>
-  </si>
-  <si>
     <t>通过筛选类型查看记账明细</t>
   </si>
   <si>
@@ -590,9 +482,6 @@
     <t>只显示该类型的记账明细</t>
   </si>
   <si>
-    <t>vehicle_steward020</t>
-  </si>
-  <si>
     <t>删除记账明细</t>
   </si>
   <si>
@@ -602,18 +491,12 @@
     <t>/vehicle/steward/accounts/delete</t>
   </si>
   <si>
-    <t>{"id": "100"}</t>
-  </si>
-  <si>
     <t>记账明细被删除</t>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/74571</t>
   </si>
   <si>
-    <t>vehicle_steward021</t>
-  </si>
-  <si>
     <t>删除不存在的记账明细</t>
   </si>
   <si>
@@ -626,69 +509,27 @@
     <t>{"success": false,"code": 1006,"msg": "操作失败","errorMsg": "操作失败"}</t>
   </si>
   <si>
-    <t>vehicle_steward022</t>
-  </si>
-  <si>
-    <t>更新记账明细</t>
-  </si>
-  <si>
-    <t>修改明细内容</t>
-  </si>
-  <si>
-    <t>/vehicle/steward/accounts/update</t>
-  </si>
-  <si>
     <t>{"automatic": false,"tallyDate": "2021-05-07","amount": "100.00","expenseType": 1, "remark": "这是备注内容","id": 615,"expenseTypeValue": "加油","gasAmount": "100.00","mileage": "100.00","petrolFull": true}</t>
   </si>
   <si>
     <t>明细更改成功</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74461</t>
-  </si>
-  <si>
-    <t>vehicle_steward023</t>
-  </si>
-  <si>
-    <t>油耗记录概况</t>
-  </si>
-  <si>
     <t>查看油耗概况数据</t>
   </si>
   <si>
-    <t>/vehicle/steward/petrol/consumption/summarise</t>
-  </si>
-  <si>
     <t>油耗概况数据返回正确</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/78636</t>
-  </si>
-  <si>
-    <t>vehicle_steward024</t>
-  </si>
-  <si>
-    <t>油耗记录列表</t>
-  </si>
-  <si>
     <t>查看油耗记录列表数据</t>
   </si>
   <si>
-    <t>/vehicle/steward/petrol/consumption/list</t>
-  </si>
-  <si>
     <t>{"page": "1","size": "20"}</t>
   </si>
   <si>
     <t>油耗列表数据返回正确</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/78646</t>
-  </si>
-  <si>
-    <t>vehicle_steward025</t>
-  </si>
-  <si>
     <t>油耗记录详情</t>
   </si>
   <si>
@@ -705,9 +546,6 @@
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/78640</t>
-  </si>
-  <si>
-    <t>vehicle_steward026</t>
   </si>
   <si>
     <t>查看不存在的油耗记录数据</t>
@@ -1112,62 +950,62 @@
   </si>
   <si>
     <t>/violationWarn/vioInfo/round</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>vioInfoRound002</t>
   </si>
   <si>
     <t>vioInfoRound001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/55122</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>caseNum</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>function</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>interface</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>priority</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>testPoint</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>frontCondition</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>reqData</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>expectResult</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>otherExpectData</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>vioInfoRound003</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>vioInfoRound004</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>vioInfoRound005</t>
@@ -1180,27 +1018,27 @@
   </si>
   <si>
     <t>vioInfoRound008</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/55104</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/violationWarn/vioType/list</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>vioTypeList001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/violationWarn/vioPoint/vehicle/list</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/55266</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1259,15 +1097,15 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/55338</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/violationWarn/getSwitch</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1332,54 +1170,805 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>登录账号15283936302</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BvioInfoRound001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>登录账号19900000001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BvioInfoRound002</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CvioInfoRound001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/bi/eventData</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>eventData001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>eventData002</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>去添加车辆</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页显示正确</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74426</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/index/info</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>stewardIndexInfo001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类型</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74431</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/index/expenseType</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>stewardI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xpenseType00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/banner/list</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bannerL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ist00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCommonOilCode001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取油标</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/vehicle/getCommonOilCode</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/75256</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/vehicle/vehicleOfUser</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicleOfUser001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账号：18311111111</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善车辆信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74471</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/vehicle/add</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>stewardvehicleA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dd00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/accounts/manualBookkeeping</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>manualBookkeeping011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>accountingStatistics001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/vehicle/accountingStatistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/75086</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountingStatistics002</t>
+  </si>
+  <si>
+    <r>
+      <t>accounts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除记账明细</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>accounts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"automatic": false,"tallyDate": "2021-05-07","amount": "25","expenseType": "2","remark": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hahaha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/accounts/delete</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"id": "664"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74571</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改明细内容</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新记账明细</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74461</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/accounts/update</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>accountsUpdate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>油耗记录概况</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/petrol/consumption/summarise</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78636</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>consumptionS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ummarise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>油耗记录列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78646</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/petrol/consumption/list</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>consumption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>油耗记录详情</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78640</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/petrol/consumption/detail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>consumption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>consumption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1491,6 +2080,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1525,11 +2120,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,86 +2134,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2309,13 +2916,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -2330,11 +2937,11 @@
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -2353,7 +2960,7 @@
   <mergeCells count="1">
     <mergeCell ref="A10:E11"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2363,13 +2970,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
@@ -2390,1298 +2997,1298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="P7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="27" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="O1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="O24" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="15" t="s">
+    <row r="25" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="18" t="s">
+      <c r="K25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="15" t="s">
+      <c r="O25" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R25" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+    <row r="26" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="I26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="18" t="s">
+      <c r="K26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="O26" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R26" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="15" t="s">
+    <row r="27" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="18" t="s">
+      <c r="K27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" s="15" t="s">
+      <c r="O28" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" s="15" t="s">
+      <c r="R28" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="G29" s="22"/>
+        <v>156</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="19"/>
       <c r="H29" s="15" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="M29" s="18" t="s">
+      <c r="K29" s="16"/>
+      <c r="L29" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M29" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O29" s="19" t="s">
-        <v>213</v>
+      <c r="O29" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>68</v>
@@ -3692,41 +4299,41 @@
     </row>
     <row r="30" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="G30" s="22"/>
+        <v>162</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="19"/>
       <c r="H30" s="15" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="M30" s="18" t="s">
+      <c r="K30" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M30" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="19" t="s">
-        <v>220</v>
+      <c r="O30" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>68</v>
@@ -3737,41 +4344,41 @@
     </row>
     <row r="31" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="19"/>
       <c r="H31" s="15" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="M31" s="18" t="s">
+      <c r="K31" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M31" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O31" s="19" t="s">
-        <v>220</v>
+      <c r="O31" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>68</v>
@@ -3782,38 +4389,38 @@
     </row>
     <row r="32" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="22"/>
+        <v>173</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="19"/>
       <c r="H32" s="15" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="M32" s="18" t="s">
+      <c r="K32" s="16"/>
+      <c r="L32" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M32" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="18"/>
       <c r="P32" s="15" t="s">
         <v>68</v>
       </c>
@@ -3823,41 +4430,41 @@
     </row>
     <row r="33" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="G33" s="22"/>
+        <v>178</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="19"/>
       <c r="H33" s="15" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="M33" s="18" t="s">
+      <c r="K33" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="M33" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="19" t="s">
-        <v>220</v>
+      <c r="O33" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>68</v>
@@ -3868,41 +4475,41 @@
     </row>
     <row r="34" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="G34" s="22"/>
+        <v>182</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="19"/>
       <c r="H34" s="15" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="M34" s="18" t="s">
+      <c r="K34" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="M34" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O34" s="19" t="s">
-        <v>220</v>
+      <c r="O34" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>68</v>
@@ -3913,41 +4520,41 @@
     </row>
     <row r="35" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="G35" s="22"/>
+        <v>187</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="19"/>
       <c r="H35" s="15" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="M35" s="18" t="s">
+      <c r="K35" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O35" s="19" t="s">
-        <v>245</v>
+      <c r="O35" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>68</v>
@@ -3958,41 +4565,41 @@
     </row>
     <row r="36" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="G36" s="22"/>
+        <v>193</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="19"/>
       <c r="H36" s="15" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="M36" s="18" t="s">
+      <c r="K36" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="M36" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O36" s="19" t="s">
-        <v>245</v>
+      <c r="O36" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>68</v>
@@ -4003,39 +4610,39 @@
     </row>
     <row r="37" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="G37" s="22"/>
+        <v>198</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="19"/>
       <c r="H37" s="15" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="M37" s="18" t="s">
+      <c r="K37" s="16"/>
+      <c r="L37" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O37" s="19" t="s">
-        <v>255</v>
+      <c r="O37" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>68</v>
@@ -4046,41 +4653,41 @@
     </row>
     <row r="38" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="G38" s="22"/>
+        <v>203</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="19"/>
       <c r="H38" s="15" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="M38" s="18" t="s">
+      <c r="K38" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="M38" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O38" s="19" t="s">
-        <v>245</v>
+      <c r="O38" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>68</v>
@@ -4091,41 +4698,41 @@
     </row>
     <row r="39" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="G39" s="22"/>
+        <v>208</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" s="19"/>
       <c r="H39" s="15" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="M39" s="18" t="s">
+      <c r="K39" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M39" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O39" s="19" t="s">
-        <v>266</v>
+      <c r="O39" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>68</v>
@@ -4135,11 +4742,11 @@
       </c>
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="23" t="s">
-        <v>330</v>
+      <c r="A40" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>66</v>
@@ -4148,29 +4755,29 @@
         <v>20</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>328</v>
+        <v>214</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O40" s="24" t="s">
-        <v>331</v>
+      <c r="O40" s="21" t="s">
+        <v>277</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>68</v>
@@ -4181,10 +4788,10 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>66</v>
@@ -4193,29 +4800,29 @@
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>68</v>
@@ -4226,10 +4833,10 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>66</v>
@@ -4238,29 +4845,29 @@
         <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>68</v>
@@ -4270,42 +4877,42 @@
       </c>
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="23" t="s">
-        <v>349</v>
+      <c r="A43" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="O43" s="24" t="s">
-        <v>347</v>
+        <v>230</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>68</v>
@@ -4316,41 +4923,41 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>68</v>
@@ -4361,41 +4968,41 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>68</v>
@@ -4406,41 +5013,41 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>68</v>
@@ -4451,10 +5058,10 @@
     </row>
     <row r="47" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>66</v>
@@ -4463,29 +5070,29 @@
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>68</v>
@@ -4495,11 +5102,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23" t="s">
-        <v>346</v>
+      <c r="A48" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>66</v>
@@ -4508,29 +5115,29 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>68</v>
@@ -4540,42 +5147,42 @@
       </c>
     </row>
     <row r="49" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="23" t="s">
-        <v>352</v>
+      <c r="A49" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>350</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O49" s="29" t="s">
-        <v>351</v>
+      <c r="O49" s="25" t="s">
+        <v>297</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>68</v>
@@ -4585,42 +5192,42 @@
       </c>
     </row>
     <row r="50" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="23" t="s">
-        <v>358</v>
+      <c r="A50" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>354</v>
+        <v>245</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="O50" s="24" t="s">
-        <v>353</v>
+        <v>247</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>68</v>
@@ -4630,42 +5237,42 @@
       </c>
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="23" t="s">
-        <v>355</v>
+      <c r="A51" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>68</v>
@@ -4675,42 +5282,42 @@
       </c>
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="23" t="s">
-        <v>356</v>
+      <c r="A52" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>68</v>
@@ -4720,42 +5327,42 @@
       </c>
     </row>
     <row r="53" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="23" t="s">
-        <v>357</v>
+      <c r="A53" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>68</v>
@@ -4765,11 +5372,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23" t="s">
-        <v>360</v>
+      <c r="A54" s="20" t="s">
+        <v>306</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>66</v>
@@ -4778,29 +5385,29 @@
         <v>20</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="23" t="s">
-        <v>359</v>
+      <c r="H54" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>68</v>
@@ -4810,11 +5417,11 @@
       </c>
     </row>
     <row r="55" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="23" t="s">
-        <v>362</v>
+      <c r="A55" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>66</v>
@@ -4823,29 +5430,29 @@
         <v>20</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="2" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>68</v>
@@ -4855,42 +5462,42 @@
       </c>
     </row>
     <row r="56" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="23" t="s">
-        <v>363</v>
+      <c r="A56" s="20" t="s">
+        <v>309</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="23" t="s">
-        <v>361</v>
+      <c r="H56" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>68</v>
@@ -4900,36 +5507,36 @@
       </c>
     </row>
     <row r="57" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="23" t="s">
-        <v>365</v>
+      <c r="A57" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>367</v>
+        <v>213</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>313</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>364</v>
+        <v>268</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="2" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>67</v>
@@ -4942,36 +5549,36 @@
       </c>
     </row>
     <row r="58" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="23" t="s">
-        <v>366</v>
+      <c r="A58" s="20" t="s">
+        <v>312</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="D58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="2" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>67</v>
@@ -4985,7 +5592,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1"/>
     <hyperlink ref="O3" r:id="rId2"/>

--- a/test_case_data/bmc/bmc_vehicle_steward_40-58_20210513.xlsx
+++ b/test_case_data/bmc/bmc_vehicle_steward_40-58_20210513.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="380">
   <si>
     <t>caseNum</t>
   </si>
@@ -560,19 +560,10 @@
     <t>{"success": false,"code": 1006,"msg": "未找到记录","errorMsg": "未找到记录"}</t>
   </si>
   <si>
-    <t>vehicle_steward027</t>
-  </si>
-  <si>
     <t>删除油耗记录</t>
   </si>
   <si>
-    <t>/vehicle/steward/petrol/consumption/delete</t>
-  </si>
-  <si>
     <t>删除成功</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/78642</t>
   </si>
   <si>
     <t>vehicle_steward028</t>
@@ -1950,6 +1941,35 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>删除油耗记录</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78642</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/petrol/consumption/delete</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>consumptionDelete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2970,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2998,19 +3018,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>279</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>282</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>5</v>
@@ -3019,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>8</v>
@@ -3028,16 +3048,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O1" s="23" t="s">
         <v>14</v>
@@ -3054,22 +3074,22 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
@@ -3086,7 +3106,7 @@
         <v>67</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>68</v>
@@ -3097,13 +3117,13 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -3112,7 +3132,7 @@
         <v>72</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
@@ -3129,7 +3149,7 @@
         <v>67</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>68</v>
@@ -3140,13 +3160,13 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -3155,7 +3175,7 @@
         <v>74</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
@@ -3182,13 +3202,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -3197,7 +3217,7 @@
         <v>77</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
@@ -3225,13 +3245,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -3240,7 +3260,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
@@ -3257,7 +3277,7 @@
         <v>67</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>68</v>
@@ -3268,13 +3288,13 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -3283,11 +3303,11 @@
         <v>82</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -3302,7 +3322,7 @@
         <v>67</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>68</v>
@@ -3313,7 +3333,7 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>69</v>
@@ -3328,7 +3348,7 @@
         <v>87</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="2" t="s">
@@ -3358,7 +3378,7 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>69</v>
@@ -3403,7 +3423,7 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>69</v>
@@ -3428,7 +3448,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>90</v>
@@ -3448,7 +3468,7 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>69</v>
@@ -3493,7 +3513,7 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>69</v>
@@ -3538,7 +3558,7 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
@@ -3583,7 +3603,7 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -3628,7 +3648,7 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>69</v>
@@ -3673,7 +3693,7 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>69</v>
@@ -3718,7 +3738,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>69</v>
@@ -3763,7 +3783,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>69</v>
@@ -3808,7 +3828,7 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>69</v>
@@ -3823,7 +3843,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="2" t="s">
@@ -3842,7 +3862,7 @@
         <v>67</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>68</v>
@@ -3853,7 +3873,7 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>69</v>
@@ -3898,13 +3918,13 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
@@ -3913,7 +3933,7 @@
         <v>124</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="2" t="s">
@@ -3923,7 +3943,7 @@
         <v>24</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>126</v>
@@ -3932,7 +3952,7 @@
         <v>67</v>
       </c>
       <c r="O21" s="30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>68</v>
@@ -3943,7 +3963,7 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>69</v>
@@ -3988,22 +4008,22 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>361</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>364</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="2" t="s">
@@ -4022,7 +4042,7 @@
         <v>67</v>
       </c>
       <c r="O23" s="30" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>68</v>
@@ -4033,13 +4053,13 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>20</v>
@@ -4048,7 +4068,7 @@
         <v>134</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="2" t="s">
@@ -4065,7 +4085,7 @@
         <v>67</v>
       </c>
       <c r="O24" s="30" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>68</v>
@@ -4076,13 +4096,13 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
@@ -4091,7 +4111,7 @@
         <v>136</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="2" t="s">
@@ -4110,7 +4130,7 @@
         <v>67</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>68</v>
@@ -4121,13 +4141,13 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>20</v>
@@ -4136,7 +4156,7 @@
         <v>140</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="2" t="s">
@@ -4155,7 +4175,7 @@
         <v>67</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>68</v>
@@ -4166,7 +4186,7 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>69</v>
@@ -4210,23 +4230,23 @@
       </c>
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>149</v>
+      <c r="A28" s="20" t="s">
+        <v>379</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>150</v>
+        <v>376</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>151</v>
+        <v>378</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="2" t="s">
@@ -4239,13 +4259,13 @@
         <v>146</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O28" s="26" t="s">
-        <v>153</v>
+      <c r="O28" s="30" t="s">
+        <v>377</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>68</v>
@@ -4256,22 +4276,22 @@
     </row>
     <row r="29" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="15" t="s">
@@ -4282,13 +4302,13 @@
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M29" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>68</v>
@@ -4299,22 +4319,22 @@
     </row>
     <row r="30" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="15" t="s">
@@ -4324,16 +4344,16 @@
         <v>24</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>68</v>
@@ -4344,22 +4364,22 @@
     </row>
     <row r="31" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="15" t="s">
@@ -4369,16 +4389,16 @@
         <v>24</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M31" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>68</v>
@@ -4389,33 +4409,33 @@
     </row>
     <row r="32" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>64</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>67</v>
@@ -4430,41 +4450,41 @@
     </row>
     <row r="33" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M33" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>68</v>
@@ -4475,41 +4495,41 @@
     </row>
     <row r="34" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M34" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>68</v>
@@ -4520,41 +4540,41 @@
     </row>
     <row r="35" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M35" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>68</v>
@@ -4565,41 +4585,41 @@
     </row>
     <row r="36" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>68</v>
@@ -4610,39 +4630,39 @@
     </row>
     <row r="37" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G37" s="19"/>
       <c r="H37" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M37" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>68</v>
@@ -4653,41 +4673,41 @@
     </row>
     <row r="38" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M38" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>68</v>
@@ -4698,41 +4718,41 @@
     </row>
     <row r="39" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G39" s="19"/>
       <c r="H39" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>68</v>
@@ -4743,10 +4763,10 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>66</v>
@@ -4755,29 +4775,29 @@
         <v>20</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>68</v>
@@ -4788,10 +4808,10 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>66</v>
@@ -4800,29 +4820,29 @@
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>68</v>
@@ -4833,10 +4853,10 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>66</v>
@@ -4845,29 +4865,29 @@
         <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>68</v>
@@ -4878,41 +4898,41 @@
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>68</v>
@@ -4923,41 +4943,41 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>68</v>
@@ -4968,41 +4988,41 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>68</v>
@@ -5013,41 +5033,41 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>68</v>
@@ -5058,10 +5078,10 @@
     </row>
     <row r="47" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>66</v>
@@ -5070,29 +5090,29 @@
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>68</v>
@@ -5103,10 +5123,10 @@
     </row>
     <row r="48" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>66</v>
@@ -5115,29 +5135,29 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>68</v>
@@ -5148,41 +5168,41 @@
     </row>
     <row r="49" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O49" s="25" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>68</v>
@@ -5193,41 +5213,41 @@
     </row>
     <row r="50" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>68</v>
@@ -5238,41 +5258,41 @@
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>68</v>
@@ -5283,41 +5303,41 @@
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>68</v>
@@ -5328,41 +5348,41 @@
     </row>
     <row r="53" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>68</v>
@@ -5373,10 +5393,10 @@
     </row>
     <row r="54" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>66</v>
@@ -5385,29 +5405,29 @@
         <v>20</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>68</v>
@@ -5418,10 +5438,10 @@
     </row>
     <row r="55" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>66</v>
@@ -5430,29 +5450,29 @@
         <v>20</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>68</v>
@@ -5463,41 +5483,41 @@
     </row>
     <row r="56" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>68</v>
@@ -5508,35 +5528,35 @@
     </row>
     <row r="57" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>67</v>
@@ -5550,35 +5570,35 @@
     </row>
     <row r="58" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>67</v>
@@ -5654,39 +5674,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -5708,12 +5695,45 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5731,7 +5751,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_vehicle_steward_40-58_20210513.xlsx
+++ b/test_case_data/bmc/bmc_vehicle_steward_40-58_20210513.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="382">
   <si>
     <t>caseNum</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>接口会报错</t>
-  </si>
-  <si>
-    <t>{"success": false,"code": 1001,"msg": "系统出现错误[1001]"}</t>
   </si>
   <si>
     <t>记账明细</t>
@@ -1969,6 +1966,18 @@
       </rPr>
       <t>001</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success": false,"code": 1005,"msg": "金额不能为空"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCreator</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2990,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3018,19 +3027,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>278</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>279</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>5</v>
@@ -3039,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>8</v>
@@ -3048,25 +3057,25 @@
         <v>9</v>
       </c>
       <c r="K1" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>281</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>282</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>16</v>
+      <c r="P1" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>380</v>
       </c>
       <c r="R1" s="23" t="s">
         <v>62</v>
@@ -3074,22 +3083,22 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
@@ -3106,7 +3115,7 @@
         <v>67</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>68</v>
@@ -3117,13 +3126,13 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -3132,7 +3141,7 @@
         <v>72</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
@@ -3149,7 +3158,7 @@
         <v>67</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>68</v>
@@ -3160,13 +3169,13 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -3175,7 +3184,7 @@
         <v>74</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
@@ -3202,13 +3211,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -3217,7 +3226,7 @@
         <v>77</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
@@ -3245,13 +3254,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -3260,7 +3269,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
@@ -3277,7 +3286,7 @@
         <v>67</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>68</v>
@@ -3288,13 +3297,13 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -3303,11 +3312,11 @@
         <v>82</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -3322,7 +3331,7 @@
         <v>67</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>68</v>
@@ -3333,7 +3342,7 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>69</v>
@@ -3348,7 +3357,7 @@
         <v>87</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="2" t="s">
@@ -3378,7 +3387,7 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>69</v>
@@ -3423,7 +3432,7 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>69</v>
@@ -3448,7 +3457,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>90</v>
@@ -3468,7 +3477,7 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>69</v>
@@ -3513,7 +3522,7 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>69</v>
@@ -3558,7 +3567,7 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
@@ -3603,7 +3612,7 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -3648,7 +3657,7 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>69</v>
@@ -3693,7 +3702,7 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>69</v>
@@ -3738,7 +3747,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>69</v>
@@ -3783,7 +3792,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>69</v>
@@ -3814,7 +3823,7 @@
         <v>112</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="O18" s="26" t="s">
         <v>91</v>
@@ -3828,22 +3837,22 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F19" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="2" t="s">
@@ -3853,16 +3862,16 @@
         <v>24</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>68</v>
@@ -3873,22 +3882,22 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="2" t="s">
@@ -3898,16 +3907,16 @@
         <v>24</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>68</v>
@@ -3918,22 +3927,22 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="2" t="s">
@@ -3943,16 +3952,16 @@
         <v>24</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O21" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>68</v>
@@ -3963,22 +3972,22 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="2" t="s">
@@ -3988,16 +3997,16 @@
         <v>24</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="O22" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>68</v>
@@ -4008,22 +4017,22 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="2" t="s">
@@ -4033,16 +4042,16 @@
         <v>24</v>
       </c>
       <c r="K23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O23" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>68</v>
@@ -4053,22 +4062,22 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="31" t="s">
         <v>363</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>364</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="2" t="s">
@@ -4079,13 +4088,13 @@
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O24" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>68</v>
@@ -4096,22 +4105,22 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="2" t="s">
@@ -4121,16 +4130,16 @@
         <v>64</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>68</v>
@@ -4141,22 +4150,22 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="2" t="s">
@@ -4166,16 +4175,16 @@
         <v>64</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>68</v>
@@ -4186,22 +4195,22 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="2" t="s">
@@ -4211,16 +4220,16 @@
         <v>64</v>
       </c>
       <c r="K27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="O27" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>68</v>
@@ -4231,22 +4240,22 @@
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="2" t="s">
@@ -4256,16 +4265,16 @@
         <v>24</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>68</v>
@@ -4276,22 +4285,22 @@
     </row>
     <row r="29" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="F29" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="15" t="s">
@@ -4302,13 +4311,13 @@
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M29" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>68</v>
@@ -4319,22 +4328,22 @@
     </row>
     <row r="30" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="F30" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="15" t="s">
@@ -4344,16 +4353,16 @@
         <v>24</v>
       </c>
       <c r="K30" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>68</v>
@@ -4364,22 +4373,22 @@
     </row>
     <row r="31" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="15" t="s">
@@ -4389,16 +4398,16 @@
         <v>24</v>
       </c>
       <c r="K31" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L31" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="M31" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>68</v>
@@ -4409,33 +4418,33 @@
     </row>
     <row r="32" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="F32" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>171</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>64</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>67</v>
@@ -4450,41 +4459,41 @@
     </row>
     <row r="33" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L33" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="M33" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>68</v>
@@ -4495,41 +4504,41 @@
     </row>
     <row r="34" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K34" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="M34" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>68</v>
@@ -4540,41 +4549,41 @@
     </row>
     <row r="35" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="F35" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K35" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="L35" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="M35" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>68</v>
@@ -4585,41 +4594,41 @@
     </row>
     <row r="36" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K36" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>68</v>
@@ -4630,39 +4639,39 @@
     </row>
     <row r="37" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="15" t="s">
+      <c r="F37" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="G37" s="19"/>
       <c r="H37" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M37" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>68</v>
@@ -4673,41 +4682,41 @@
     </row>
     <row r="38" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="19" t="s">
         <v>200</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>201</v>
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K38" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="L38" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>203</v>
       </c>
       <c r="M38" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>68</v>
@@ -4718,41 +4727,41 @@
     </row>
     <row r="39" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="G39" s="19"/>
       <c r="H39" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>67</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>68</v>
@@ -4763,10 +4772,10 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>66</v>
@@ -4775,29 +4784,29 @@
         <v>20</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K40" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>68</v>
@@ -4808,10 +4817,10 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>66</v>
@@ -4820,29 +4829,29 @@
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>68</v>
@@ -4853,10 +4862,10 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>66</v>
@@ -4865,29 +4874,29 @@
         <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K42" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O42" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>68</v>
@@ -4898,41 +4907,41 @@
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K43" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="M43" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="O43" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>68</v>
@@ -4943,41 +4952,41 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>68</v>
@@ -4988,41 +4997,41 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>68</v>
@@ -5033,41 +5042,41 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>68</v>
@@ -5078,10 +5087,10 @@
     </row>
     <row r="47" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>66</v>
@@ -5090,29 +5099,29 @@
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>68</v>
@@ -5123,10 +5132,10 @@
     </row>
     <row r="48" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>66</v>
@@ -5135,29 +5144,29 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>68</v>
@@ -5168,41 +5177,41 @@
     </row>
     <row r="49" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="F49" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O49" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>68</v>
@@ -5213,41 +5222,41 @@
     </row>
     <row r="50" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="F50" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>68</v>
@@ -5258,41 +5267,41 @@
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K51" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="L51" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>68</v>
@@ -5303,41 +5312,41 @@
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>68</v>
@@ -5348,41 +5357,41 @@
     </row>
     <row r="53" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>68</v>
@@ -5393,10 +5402,10 @@
     </row>
     <row r="54" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>66</v>
@@ -5405,29 +5414,29 @@
         <v>20</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>68</v>
@@ -5438,10 +5447,10 @@
     </row>
     <row r="55" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>66</v>
@@ -5450,29 +5459,29 @@
         <v>20</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>68</v>
@@ -5483,41 +5492,41 @@
     </row>
     <row r="56" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>68</v>
@@ -5528,35 +5537,35 @@
     </row>
     <row r="57" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>67</v>
@@ -5570,35 +5579,35 @@
     </row>
     <row r="58" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>67</v>
@@ -5674,6 +5683,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -5695,45 +5737,12 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5751,7 +5760,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
